--- a/Data/RawData/YPE_Data/YPE_19_GlacierPointRoadFarther/Digital Data_YPE19/YPE_PILAdata_Plot_19.xlsx
+++ b/Data/RawData/YPE_Data/YPE_19_GlacierPointRoadFarther/Digital Data_YPE19/YPE_PILAdata_Plot_19.xlsx
@@ -213,7 +213,7 @@
     <t>JEC_JCD_MDM_EAS_EMS_TMD_SWA</t>
   </si>
   <si>
-    <t>66i</t>
+    <t>66sr</t>
   </si>
   <si>
     <t>0263641</t>
@@ -910,7 +910,7 @@
         <v>263680.0</v>
       </c>
       <c r="M2" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N2" s="4">
         <v>1.0</v>
@@ -1098,7 +1098,7 @@
         <v>263680.0</v>
       </c>
       <c r="M3" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N3" s="4">
         <v>1.0</v>
@@ -1286,7 +1286,7 @@
         <v>263680.0</v>
       </c>
       <c r="M4" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N4" s="4">
         <v>1.0</v>
@@ -1474,7 +1474,7 @@
         <v>263680.0</v>
       </c>
       <c r="M5" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N5" s="4">
         <v>1.0</v>
@@ -1662,7 +1662,7 @@
         <v>263680.0</v>
       </c>
       <c r="M6" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N6" s="4">
         <v>1.0</v>
@@ -1850,7 +1850,7 @@
         <v>263680.0</v>
       </c>
       <c r="M7" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N7" s="4">
         <v>1.0</v>
@@ -2038,7 +2038,7 @@
         <v>263680.0</v>
       </c>
       <c r="M8" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N8" s="4">
         <v>1.0</v>
@@ -2226,7 +2226,7 @@
         <v>263680.0</v>
       </c>
       <c r="M9" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N9" s="4">
         <v>1.0</v>
@@ -2414,7 +2414,7 @@
         <v>263680.0</v>
       </c>
       <c r="M10" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N10" s="4">
         <v>1.0</v>
@@ -2602,7 +2602,7 @@
         <v>263680.0</v>
       </c>
       <c r="M11" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N11" s="4">
         <v>1.0</v>
@@ -2790,7 +2790,7 @@
         <v>263680.0</v>
       </c>
       <c r="M12" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N12" s="4">
         <v>1.0</v>
@@ -2978,7 +2978,7 @@
         <v>263680.0</v>
       </c>
       <c r="M13" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N13" s="4">
         <v>1.0</v>
@@ -3166,7 +3166,7 @@
         <v>263680.0</v>
       </c>
       <c r="M14" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N14" s="4">
         <v>1.0</v>
@@ -3354,7 +3354,7 @@
         <v>263680.0</v>
       </c>
       <c r="M15" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N15" s="4">
         <v>1.0</v>
@@ -3542,7 +3542,7 @@
         <v>263680.0</v>
       </c>
       <c r="M16" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N16" s="4">
         <v>1.0</v>
@@ -3730,7 +3730,7 @@
         <v>263680.0</v>
       </c>
       <c r="M17" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N17" s="4">
         <v>1.0</v>
@@ -3918,7 +3918,7 @@
         <v>263680.0</v>
       </c>
       <c r="M18" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N18" s="4">
         <v>1.0</v>
@@ -4106,7 +4106,7 @@
         <v>263680.0</v>
       </c>
       <c r="M19" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N19" s="4">
         <v>1.0</v>
@@ -4294,7 +4294,7 @@
         <v>263680.0</v>
       </c>
       <c r="M20" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N20" s="4">
         <v>1.0</v>
@@ -4482,7 +4482,7 @@
         <v>263680.0</v>
       </c>
       <c r="M21" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N21" s="4">
         <v>1.0</v>
@@ -4670,7 +4670,7 @@
         <v>263680.0</v>
       </c>
       <c r="M22" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N22" s="4">
         <v>1.0</v>
@@ -4858,7 +4858,7 @@
         <v>263680.0</v>
       </c>
       <c r="M23" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N23" s="4">
         <v>1.0</v>
@@ -5046,7 +5046,7 @@
         <v>263680.0</v>
       </c>
       <c r="M24" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N24" s="4">
         <v>1.0</v>
@@ -5234,7 +5234,7 @@
         <v>263680.0</v>
       </c>
       <c r="M25" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N25" s="4">
         <v>1.0</v>
@@ -5422,7 +5422,7 @@
         <v>263680.0</v>
       </c>
       <c r="M26" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N26" s="4">
         <v>1.0</v>
@@ -5610,7 +5610,7 @@
         <v>263680.0</v>
       </c>
       <c r="M27" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N27" s="4">
         <v>1.0</v>
@@ -5798,7 +5798,7 @@
         <v>263680.0</v>
       </c>
       <c r="M28" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N28" s="4">
         <v>1.0</v>
@@ -5986,7 +5986,7 @@
         <v>263680.0</v>
       </c>
       <c r="M29" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N29" s="4">
         <v>1.0</v>
@@ -6174,7 +6174,7 @@
         <v>263680.0</v>
       </c>
       <c r="M30" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N30" s="4">
         <v>1.0</v>
@@ -6362,7 +6362,7 @@
         <v>263680.0</v>
       </c>
       <c r="M31" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N31" s="4">
         <v>1.0</v>
@@ -6550,7 +6550,7 @@
         <v>263680.0</v>
       </c>
       <c r="M32" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N32" s="4">
         <v>1.0</v>
@@ -6738,7 +6738,7 @@
         <v>263680.0</v>
       </c>
       <c r="M33" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N33" s="4">
         <v>1.0</v>
@@ -6926,7 +6926,7 @@
         <v>263680.0</v>
       </c>
       <c r="M34" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N34" s="4">
         <v>1.0</v>
@@ -7114,7 +7114,7 @@
         <v>263680.0</v>
       </c>
       <c r="M35" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N35" s="4">
         <v>1.0</v>
@@ -7302,7 +7302,7 @@
         <v>263680.0</v>
       </c>
       <c r="M36" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N36" s="4">
         <v>1.0</v>
@@ -7490,7 +7490,7 @@
         <v>263680.0</v>
       </c>
       <c r="M37" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N37" s="4">
         <v>1.0</v>
@@ -7678,7 +7678,7 @@
         <v>263680.0</v>
       </c>
       <c r="M38" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N38" s="4">
         <v>1.0</v>
@@ -7866,7 +7866,7 @@
         <v>263680.0</v>
       </c>
       <c r="M39" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N39" s="4">
         <v>1.0</v>
@@ -8054,7 +8054,7 @@
         <v>263680.0</v>
       </c>
       <c r="M40" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N40" s="4">
         <v>1.0</v>
@@ -8242,7 +8242,7 @@
         <v>263680.0</v>
       </c>
       <c r="M41" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N41" s="4">
         <v>1.0</v>
@@ -8430,7 +8430,7 @@
         <v>263680.0</v>
       </c>
       <c r="M42" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N42" s="4">
         <v>1.0</v>
@@ -8618,7 +8618,7 @@
         <v>263680.0</v>
       </c>
       <c r="M43" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N43" s="4">
         <v>1.0</v>
@@ -8806,7 +8806,7 @@
         <v>263680.0</v>
       </c>
       <c r="M44" s="4">
-        <v>4173499.0</v>
+        <v>4173439.0</v>
       </c>
       <c r="N44" s="4">
         <v>1.0</v>
